--- a/07DataPivot/excel_data/DataPivot_김수하.xlsx
+++ b/07DataPivot/excel_data/DataPivot_김수하.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Documents\UiPath\RPA\07DataPivot\excel_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkdus\OneDrive\바탕 화면\Uipath 예제_202003up\3. 데이터 피벗\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AAB830-FA94-4F97-AB5C-A9ED778DBCE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="종합" sheetId="1" r:id="rId1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>가</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,30 +74,12 @@
   <si>
     <t>0000년 00월 자료</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네오</t>
-  </si>
-  <si>
-    <t>라이언</t>
-  </si>
-  <si>
-    <t>무지</t>
-  </si>
-  <si>
-    <t>콘</t>
-  </si>
-  <si>
-    <t>튜브</t>
-  </si>
-  <si>
-    <t>프로도</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -563,26 +544,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="57.375" customWidth="1"/>
-    <col min="3" max="3" width="106.875" customWidth="1"/>
+    <col min="2" max="2" width="57.3984375" customWidth="1"/>
+    <col min="3" max="3" width="106.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="1" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="B1" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="2" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -590,31 +571,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+    <row r="3" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+    <row r="4" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="2:3" ht="54" x14ac:dyDescent="0.9">
+    <row r="5" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="6" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="7" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -631,21 +612,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="57.375" customWidth="1"/>
-    <col min="3" max="3" width="106.875" customWidth="1"/>
+    <col min="2" max="2" width="57.3984375" customWidth="1"/>
+    <col min="3" max="3" width="106.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="1" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -653,61 +634,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="54" x14ac:dyDescent="0.9">
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1071028</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="54" x14ac:dyDescent="0.9">
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6">
-        <v>424120</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="54" x14ac:dyDescent="0.9">
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6">
-        <v>3829546</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="54" x14ac:dyDescent="0.9">
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2922465</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="54" x14ac:dyDescent="0.9">
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6">
-        <v>3712220</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="B8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="8">
-        <v>2418403</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="3" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8">
-        <v>14377782</v>
-      </c>
+      <c r="C9" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -716,21 +671,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="57.375" customWidth="1"/>
-    <col min="3" max="3" width="106.875" customWidth="1"/>
+    <col min="2" max="2" width="57.3984375" customWidth="1"/>
+    <col min="3" max="3" width="106.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="1" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -738,61 +693,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="54" x14ac:dyDescent="0.9">
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4">
-        <v>784447</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="54" x14ac:dyDescent="0.9">
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6">
-        <v>198893</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="54" x14ac:dyDescent="0.9">
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2251230</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="54" x14ac:dyDescent="0.9">
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2350193</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="54" x14ac:dyDescent="0.9">
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6">
-        <v>3653356</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="B8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="8">
-        <v>828330</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="3" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8">
-        <v>10066449</v>
-      </c>
+      <c r="C9" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -801,21 +730,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="57.375" customWidth="1"/>
-    <col min="3" max="3" width="106.875" customWidth="1"/>
+    <col min="2" max="2" width="57.3984375" customWidth="1"/>
+    <col min="3" max="3" width="106.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="1" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -823,61 +752,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="54" x14ac:dyDescent="0.9">
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1191884</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="54" x14ac:dyDescent="0.9">
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6">
-        <v>390372</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="54" x14ac:dyDescent="0.9">
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6">
-        <v>3745871</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="54" x14ac:dyDescent="0.9">
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2308801</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="54" x14ac:dyDescent="0.9">
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6">
-        <v>4760930</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="B8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="8">
-        <v>2191884</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="3" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8">
-        <v>14589742</v>
-      </c>
+      <c r="C9" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -887,24 +790,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="57.375" customWidth="1"/>
-    <col min="3" max="3" width="106.875" customWidth="1"/>
+    <col min="2" max="2" width="57.3984375" customWidth="1"/>
+    <col min="3" max="3" width="106.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
     </row>
-    <row r="2" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="2" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -912,61 +815,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="54" x14ac:dyDescent="0.9">
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2525882</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="54" x14ac:dyDescent="0.9">
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6">
-        <v>528701</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="54" x14ac:dyDescent="0.9">
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6">
-        <v>3770988</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="54" x14ac:dyDescent="0.9">
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6">
-        <v>4038805</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="54" x14ac:dyDescent="0.9">
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6">
-        <v>7382141</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="B8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="8">
-        <v>1990172</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="54.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="3" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="2:3" ht="52.8" x14ac:dyDescent="1.1000000000000001">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="2:3" ht="53.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8">
-        <v>20236689</v>
-      </c>
+      <c r="C9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
